--- a/modelIPL.xlsx
+++ b/modelIPL.xlsx
@@ -617,44 +617,44 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>129</v>
+        <v>1578</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROHIT SHARMA</t>
+          <t>SHIKHAR DHAWAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ipl2023_73</t>
+          <t>smat2022_131</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>137</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>114.3</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>42.9</v>
+        <v>44.4</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -702,25 +702,25 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD2" t="n">
         <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -734,81 +734,81 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>161</v>
+        <v>1620</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEWALD BREVIS</t>
+          <t>JITESH SHARMA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sat20_2024_08</t>
+          <t>smat2022_135</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>19</v>
+      </c>
+      <c r="X3" t="n">
         <v>9</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>21</v>
-      </c>
-      <c r="X3" t="n">
-        <v>16</v>
-      </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
@@ -819,31 +819,31 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -851,29 +851,29 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>278</v>
+        <v>1691</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SURYAKUMAR YADAV</t>
+          <t>JONNY BAIRSTOW</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>smat2021_095</t>
+          <t>t20blast2023_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>146.7</v>
+        <v>116.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.7</v>
+        <v>50</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -939,13 +939,13 @@
         <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -968,29 +968,29 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>367</v>
+        <v>1738</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISHAN KISHAN</t>
+          <t>PRABHSIMRAN SINGH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>smat2021_081</t>
+          <t>smat2023_135</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>142.1</v>
+        <v>128.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -999,13 +999,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>36.8</v>
+        <v>42.9</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -1085,29 +1085,29 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>401</v>
+        <v>1949</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TILAK VARMA</t>
+          <t>LIAM LIVINGSTONE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>smat2023_069</t>
+          <t>t20blast2023_127</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>166.7</v>
+        <v>53.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1116,115 +1116,115 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="M6" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X6" t="n">
         <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
         <v>2</v>
       </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH6" t="n">
         <v>16</v>
       </c>
-      <c r="AE6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>-0</v>
-      </c>
       <c r="AI6" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>565</v>
+        <v>2159</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TIM DAVID</t>
+          <t>HARPREET BHATIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>t20blast2022_133</t>
+          <t>t20blast2023_127</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>72.7</v>
+        <v>53.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1233,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>45.5</v>
+        <v>69.2</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1272,31 +1272,31 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -1319,101 +1319,101 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>577</v>
+        <v>2385</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VISHNU VINOD</t>
+          <t>RILEE ROSSOUW</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>smat2023_132</t>
+          <t>t20blast2022_132</t>
         </is>
       </c>
       <c r="D8" t="n">
+        <v>23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>115</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>29</v>
+      </c>
+      <c r="X8" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD8" t="n">
         <v>17</v>
       </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>25</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
       <c r="AE8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -1422,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -1436,29 +1436,29 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>769</v>
+        <v>2402</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MOHAMMAD NABI</t>
+          <t>SHASHANK SINGH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>t20blast2021_122</t>
+          <t>smat2023_094</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>114.3</v>
+        <v>127.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1470,99 +1470,99 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>28.6</v>
+        <v>18.2</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>28</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD9" t="n">
         <v>12</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="W9" t="n">
-        <v>12</v>
-      </c>
-      <c r="X9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AE9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AI9" t="n">
         <v>3</v>
       </c>
-      <c r="Z9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>24</v>
-      </c>
       <c r="AJ9" t="n">
         <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>780</v>
+        <v>2463</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ARJUN TENDULKAR</t>
+          <t>CHRIS WOAKES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>smat2023_068</t>
+          <t>t20blast2023_105</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1596,58 +1596,58 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>4.25</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>83.3</v>
+        <v>50</v>
       </c>
       <c r="W10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="n">
         <v>3</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>4</v>
       </c>
       <c r="Z10" t="n">
         <v>28</v>
       </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
         <v>3</v>
@@ -1656,43 +1656,43 @@
         <v>4</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" t="n">
         <v>2</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>849</v>
+        <v>2504</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ROMARIO SHEPHERD</t>
+          <t>VISHWANATH PRATAP SINGH</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sat20_2024_07</t>
+          <t>t20blast2023_098</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>142.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1701,115 +1701,115 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>42.9</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>45.8</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
         <v>7</v>
       </c>
       <c r="Y11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>3</v>
       </c>
       <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE11" t="n">
         <v>9</v>
       </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>8</v>
-      </c>
       <c r="AF11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>861</v>
+        <v>2510</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SHAMS MULANI</t>
+          <t>ASHUTOSH SHARMA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>smat2023_058</t>
+          <t>smat2023_096</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>212.5</v>
+        <v>166.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1821,127 +1821,127 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>50</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>31</v>
+      </c>
+      <c r="X12" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AD12" t="n">
         <v>25</v>
       </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="n">
-        <v>18</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" t="n">
-        <v>8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>13</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>5</v>
-      </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>875</v>
+        <v>2516</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NEHAL WADHERA</t>
+          <t>TANAY THYAGARAJANN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>smat2023_135</t>
+          <t>smat2023_096</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>225.9</v>
+        <v>166.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>18.5</v>
+        <v>50</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1989,16 +1989,16 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
@@ -2021,146 +2021,146 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>995</v>
+        <v>2534</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HARDIK PANDYA</t>
+          <t>ATHARVA TAIDE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ipl2023_74</t>
+          <t>smat2022_135</t>
         </is>
       </c>
       <c r="D14" t="n">
+        <v>29</v>
+      </c>
+      <c r="E14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>21</v>
       </c>
-      <c r="E14" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>175</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>2</v>
       </c>
-      <c r="L14" t="n">
-        <v>25</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>14</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="W14" t="n">
-        <v>18</v>
-      </c>
-      <c r="X14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>14</v>
-      </c>
       <c r="AI14" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1011</v>
+        <v>2563</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GERALD COETZEE</t>
+          <t>RISHI DHAWAN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sat20_2023_32</t>
+          <t>smat2022_136</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>70.59999999999999</v>
+        <v>33.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2172,109 +2172,109 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>64.7</v>
+        <v>66.7</v>
       </c>
       <c r="M15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>26</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG15" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="n">
-        <v>41</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="n">
         <v>2</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1015</v>
+        <v>3107</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ANSHUL KAMBOJ</t>
+          <t>KAGISO RABADA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>smat2023_076</t>
+          <t>t20blast2016_116</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2292,109 +2292,109 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>28</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3</v>
+      </c>
+      <c r="X16" t="n">
         <v>2</v>
       </c>
-      <c r="N16" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="Y16" t="n">
         <v>4</v>
       </c>
-      <c r="Q16" t="n">
-        <v>8</v>
-      </c>
-      <c r="R16" t="n">
-        <v>12</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>100</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA16" t="n">
         <v>2</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH16" t="n">
         <v>29</v>
       </c>
-      <c r="AA16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AI16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK16" t="n">
         <v>2</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3361</v>
+        <v>136</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SANJU SAMSON</t>
+          <t>ROHIT SHARMA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>smat2023_132</t>
+          <t>ipl2024_33</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2403,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X17" t="n">
         <v>18</v>
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AD17" t="n">
         <v>16</v>
@@ -2489,29 +2489,29 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3552</v>
+        <v>176</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JOS BUTTLER</t>
+          <t>DEWALD BREVIS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>t20blast2023_127</t>
+          <t>sat20_2024_28</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>131.2</v>
+        <v>90</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2520,85 +2520,85 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>40</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>14</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI18" t="n">
         <v>2</v>
       </c>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>32</v>
-      </c>
-      <c r="X18" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -2606,29 +2606,29 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3689</v>
+        <v>297</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SHIMRON HETMYER</t>
+          <t>SURYAKUMAR YADAV</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>psl2021_16</t>
+          <t>smat2021_095</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>77.8</v>
+        <v>146.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>33.3</v>
+        <v>26.7</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>20</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>16</v>
       </c>
       <c r="AC19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2723,44 +2723,44 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3740</v>
+        <v>393</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>YASHASVI JAISWAL</t>
+          <t>ISHAN KISHAN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>smat2023_058</t>
+          <t>smat2021_081</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>138.9</v>
+        <v>142.1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>44.4</v>
+        <v>36.8</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2793,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2808,25 +2808,25 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE20" t="n">
         <v>22</v>
       </c>
-      <c r="AD20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>10</v>
-      </c>
       <c r="AF20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -2840,29 +2840,29 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3754</v>
+        <v>401</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DHRUV JUREL</t>
+          <t>HARVIK DESAI</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>smat2023_127</t>
+          <t>smat2023_078</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>144.4</v>
+        <v>360</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2874,10 +2874,10 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>55.6</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2910,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="X21" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2925,16 +2925,16 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -2957,29 +2957,29 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3810</v>
+        <v>409</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RIYAN PARAG</t>
+          <t>N. TILAK VARMA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>smat2023_134</t>
+          <t>smat2023_078</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2988,25 +2988,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>10.67</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -3018,85 +3018,85 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3863</v>
+        <v>587</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KUNAL RATHORE</t>
+          <t>TIM DAVID</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>smat2023_134</t>
+          <t>t20blast2022_133</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>80</v>
+        <v>72.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3111,76 +3111,76 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>20</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>9</v>
-      </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="n">
         <v>3</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
@@ -3191,29 +3191,29 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3916</v>
+        <v>599</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DONOVAN FERREIRA</t>
+          <t>VISHNU VINOD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>smat2023_134</t>
+          <t>smat2023_132</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>141.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3261,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -3276,16 +3276,16 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
@@ -3308,146 +3308,146 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4038</v>
+        <v>726</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ROVMAN POWELL</t>
+          <t>HARDIK PANDYA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>psl2023_27</t>
+          <t>ipl2024_33</t>
         </is>
       </c>
       <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>166.7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>33</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>33</v>
+      </c>
+      <c r="R25" t="n">
+        <v>24</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="V25" t="n">
         <v>50</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>50</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
       <c r="W25" t="n">
+        <v>15</v>
+      </c>
+      <c r="X25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC25" t="n">
         <v>18</v>
       </c>
-      <c r="X25" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>22</v>
-      </c>
       <c r="AD25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE25" t="n">
         <v>13</v>
       </c>
-      <c r="AE25" t="n">
-        <v>17</v>
-      </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH25" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4045</v>
+        <v>737</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SHUBHAM DUBEY</t>
+          <t>ARJUN TENDULKAR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>smat2022_135</t>
+          <t>smat2023_068</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>86.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -3456,25 +3456,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>36.4</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -3489,82 +3489,82 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="W26" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="X26" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH26" t="n">
         <v>17</v>
       </c>
-      <c r="AC26" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4206</v>
+        <v>942</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TOM KOHLER-CADMORE</t>
+          <t>MOHAMMAD NABI</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>t20blast2023_133</t>
+          <t>t20blast2021_122</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>114.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3573,232 +3573,232 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>23</v>
+      </c>
+      <c r="O27" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="W27" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="X27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH27" t="n">
         <v>20</v>
       </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>31</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4336</v>
+        <v>1023</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RAVICHANDRAN ASHWIN</t>
+          <t>ROMARIO SHEPHERD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>tnpl2023_16</t>
+          <t>sat20_2024_17</t>
         </is>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>15</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>75</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8</v>
+      </c>
+      <c r="X28" t="n">
         <v>5</v>
       </c>
-      <c r="E28" t="n">
+      <c r="Y28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC28" t="n">
         <v>10</v>
       </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>50</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>50</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="n">
-        <v>31</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>31</v>
-      </c>
-      <c r="R28" t="n">
-        <v>24</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="W28" t="n">
-        <v>7</v>
-      </c>
-      <c r="X28" t="n">
+      <c r="AD28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE28" t="n">
         <v>6</v>
       </c>
-      <c r="Y28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>7</v>
-      </c>
       <c r="AF28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4343</v>
+        <v>1037</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ABID MUSHTAQ</t>
+          <t>SHAMS MULANI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>smat2023_104</t>
+          <t>smat2023_058</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>212.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3807,232 +3807,232 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P29" t="n">
-        <v>7.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>41.7</v>
+        <v>45.8</v>
       </c>
       <c r="W29" t="n">
         <v>6</v>
       </c>
       <c r="X29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AA29" t="n">
         <v>1</v>
       </c>
       <c r="AB29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AF29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG29" t="n">
         <v>4</v>
       </c>
       <c r="AH29" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4396</v>
+        <v>1051</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AVESH KHAN</t>
+          <t>NEHAL WADHERA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>smat2023_108</t>
+          <t>smat2023_135</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>225.9</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>45.8</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="X30" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC30" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4413</v>
+        <v>1074</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KULDEEP SEN</t>
+          <t>GERALD COETZEE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>smat2023_090</t>
+          <t>sat20_2023_32</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -4044,22 +4044,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>100</v>
+        <v>64.7</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>10.25</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -4071,58 +4071,58 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>33.3</v>
+        <v>37.5</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y31" t="n">
         <v>3</v>
       </c>
       <c r="Z31" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AA31" t="n">
         <v>1</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG31" t="n">
         <v>3</v>
       </c>
-      <c r="AG31" t="n">
-        <v>4</v>
-      </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AJ31" t="n">
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/modelIPL.xlsx
+++ b/modelIPL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AK50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,29 +617,29 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1578</v>
+        <v>136</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SHIKHAR DHAWAN</t>
+          <t>ROHIT SHARMA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>smat2022_131</t>
+          <t>ipl2024_33</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>44.4</v>
+        <v>40</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -687,31 +687,31 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>24</v>
+      </c>
+      <c r="X2" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC2" t="n">
         <v>28</v>
       </c>
-      <c r="X2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>32</v>
-      </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -734,29 +734,29 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1620</v>
+        <v>176</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JITESH SHARMA</t>
+          <t>DEWALD BREVIS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>smat2022_135</t>
+          <t>sat20_2024_28</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>191.7</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -765,13 +765,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16.7</v>
+        <v>40</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -804,43 +804,43 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD3" t="n">
         <v>9</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -851,29 +851,29 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1691</v>
+        <v>297</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JONNY BAIRSTOW</t>
+          <t>SURYAKUMAR YADAV</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>t20blast2023_002</t>
+          <t>smat2021_095</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>116.7</v>
+        <v>146.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>50</v>
+        <v>26.7</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -936,16 +936,16 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -968,29 +968,29 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1738</v>
+        <v>393</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PRABHSIMRAN SINGH</t>
+          <t>ISHAN KISHAN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>smat2023_135</t>
+          <t>smat2021_081</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>128.6</v>
+        <v>142.1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -999,13 +999,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>42.9</v>
+        <v>36.8</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -1085,29 +1085,29 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1949</v>
+        <v>401</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LIAM LIVINGSTONE</t>
+          <t>HARVIK DESAI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>t20blast2023_127</t>
+          <t>smat2023_078</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>53.8</v>
+        <v>360</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1119,112 +1119,112 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>69.2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD6" t="n">
         <v>24</v>
       </c>
-      <c r="AC6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18</v>
-      </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2159</v>
+        <v>409</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HARPREET BHATIA</t>
+          <t>N. TILAK VARMA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>t20blast2023_127</t>
+          <t>smat2023_078</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>53.8</v>
+        <v>360</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>69.2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1287,16 +1287,16 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1319,101 +1319,101 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2385</v>
+        <v>587</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RILEE ROSSOUW</t>
+          <t>TIM DAVID</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>t20blast2022_132</t>
+          <t>t20blast2022_133</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>20</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>115</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>50</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>29</v>
-      </c>
       <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
         <v>18</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
       <c r="AC8" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -1422,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -1436,29 +1436,29 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2402</v>
+        <v>599</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SHASHANK SINGH</t>
+          <t>VISHNU VINOD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>smat2023_094</t>
+          <t>smat2023_132</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>127.3</v>
+        <v>141.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1467,25 +1467,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>18.2</v>
+        <v>25</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1506,46 +1506,46 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AF9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
@@ -1553,29 +1553,29 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2463</v>
+        <v>726</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHRIS WOAKES</t>
+          <t>HARDIK PANDYA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>t20blast2023_105</t>
+          <t>ipl2024_33</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1587,25 +1587,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R10" t="n">
         <v>24</v>
@@ -1617,433 +1617,433 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>50</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
         <v>1</v>
       </c>
       <c r="AB10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2504</v>
+        <v>737</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VISHWANATH PRATAP SINGH</t>
+          <t>ARJUN TENDULKAR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>t20blast2023_098</t>
+          <t>smat2023_068</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="n">
         <v>7</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>8</v>
-      </c>
-      <c r="X11" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2510</v>
+        <v>942</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ASHUTOSH SHARMA</t>
+          <t>MOHAMMAD NABI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>smat2023_096</t>
+          <t>t20blast2021_122</t>
         </is>
       </c>
       <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>23</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="W12" t="n">
+        <v>12</v>
+      </c>
+      <c r="X12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>166.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>50</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>31</v>
-      </c>
-      <c r="X12" t="n">
-        <v>33</v>
-      </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AC12" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2516</v>
+        <v>1023</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TANAY THYAGARAJANN</t>
+          <t>ROMARIO SHEPHERD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>smat2023_096</t>
+          <t>sat20_2024_17</t>
         </is>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC13" t="n">
         <v>10</v>
       </c>
-      <c r="E13" t="n">
+      <c r="AD13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE13" t="n">
         <v>6</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>166.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>50</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>31</v>
-      </c>
-      <c r="X13" t="n">
-        <v>33</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>42</v>
-      </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2534</v>
+        <v>1037</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATHARVA TAIDE</t>
+          <t>SHAMS MULANI</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>smat2022_135</t>
+          <t>smat2023_058</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>131.8</v>
+        <v>212.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2052,31 +2052,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>40.9</v>
+        <v>25</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2085,199 +2085,199 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45.8</v>
       </c>
       <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH14" t="n">
         <v>21</v>
       </c>
-      <c r="X14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>31</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>2</v>
-      </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2563</v>
+        <v>1051</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RISHI DHAWAN</t>
+          <t>NEHAL WADHERA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>smat2022_136</t>
+          <t>smat2023_135</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>33.3</v>
+        <v>225.9</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>66.7</v>
+        <v>18.5</v>
       </c>
       <c r="M15" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>37</v>
+      </c>
+      <c r="X15" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>26</v>
       </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>13</v>
-      </c>
-      <c r="R15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3107</v>
+        <v>1074</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KAGISO RABADA</t>
+          <t>GERALD COETZEE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>t20blast2016_116</t>
+          <t>sat20_2023_32</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>64.7</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>7</v>
+        <v>10.25</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2316,52 +2316,52 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>66.7</v>
+        <v>37.5</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
         <v>2</v>
       </c>
       <c r="AB16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="n">
         <v>1</v>
@@ -2372,29 +2372,29 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>136</v>
+        <v>1078</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROHIT SHARMA</t>
+          <t>ANSHUL KAMBOJ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ipl2024_33</t>
+          <t>smat2023_076</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2403,115 +2403,115 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>176</v>
+        <v>1085</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEWALD BREVIS</t>
+          <t>NAMAN DHIR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sat20_2024_28</t>
+          <t>smat2023_133</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2559,31 +2559,31 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
         <v>13</v>
       </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>20</v>
-      </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AF18" t="n">
         <v>-0</v>
@@ -2592,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0</v>
+        <v>-5</v>
       </c>
       <c r="AI18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -2606,29 +2606,29 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>297</v>
+        <v>1092</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SURYAKUMAR YADAV</t>
+          <t>SHIVALIK SHARMA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>smat2021_095</t>
+          <t>smat2023_133</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>146.7</v>
+        <v>50</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>26.7</v>
+        <v>50</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2676,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2723,146 +2723,146 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>393</v>
+        <v>1206</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ISHAN KISHAN</t>
+          <t>JASPRIT BUMRAH</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>smat2021_081</t>
+          <t>ipl2024_33</t>
         </is>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>21</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH20" t="n">
         <v>27</v>
       </c>
-      <c r="E20" t="n">
-        <v>19</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>27</v>
-      </c>
-      <c r="X20" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>31</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>401</v>
+        <v>1224</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HARVIK DESAI</t>
+          <t>KUMAR KARTIKEYA SINGH</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>smat2023_078</t>
+          <t>smat2023_108</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2871,115 +2871,115 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="W21" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="AD21" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>409</v>
+        <v>1319</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N. TILAK VARMA</t>
+          <t>PIYUSH CHAWLA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>smat2023_078</t>
+          <t>smat2023_127</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>360</v>
+        <v>162.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2988,25 +2988,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -3018,85 +3018,85 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="W22" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AC22" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="AD22" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>587</v>
+        <v>1336</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TIM DAVID</t>
+          <t>AKASH MADHWAL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>t20blast2022_133</t>
+          <t>smat2022_105</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>72.7</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3111,19 +3111,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -3135,286 +3135,286 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="W23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="n">
         <v>12</v>
       </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>18</v>
-      </c>
       <c r="AC23" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>599</v>
+        <v>1349</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VISHNU VINOD</t>
+          <t>DILSHAN MADUSHANKA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>smat2023_132</t>
+          <t>lpl2023_22</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>100</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>43</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB24" t="n">
         <v>12</v>
       </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>25</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>726</v>
+        <v>1398</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HARDIK PANDYA</t>
+          <t>SHREYAS GOPAL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ipl2024_33</t>
+          <t>smat2023_132</t>
         </is>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>100</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>30</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>10</v>
       </c>
-      <c r="E25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>166.7</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="n">
-        <v>33</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Q25" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z25" t="n">
         <v>24</v>
       </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>50</v>
-      </c>
-      <c r="W25" t="n">
-        <v>15</v>
-      </c>
-      <c r="X25" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>21</v>
-      </c>
       <c r="AA25" t="n">
         <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AF25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AJ25" t="n">
         <v>1</v>
@@ -3425,26 +3425,26 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>737</v>
+        <v>1433</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ARJUN TENDULKAR</t>
+          <t>NUWAN THUSHARA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>smat2023_068</t>
+          <t>sat20_2024_28</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3462,109 +3462,109 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N26" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>4.25</v>
+        <v>10.91</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>83.3</v>
+        <v>40.9</v>
       </c>
       <c r="W26" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="X26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI26" t="n">
         <v>28</v>
       </c>
-      <c r="AA26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>38</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>942</v>
+        <v>8533</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MOHAMMAD NABI</t>
+          <t>RUTURAJ GAIKWAD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>t20blast2021_122</t>
+          <t>smat2021_2_090</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>114.3</v>
+        <v>129.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3573,115 +3573,115 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>28.6</v>
+        <v>26.5</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>41.7</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="X27" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AC27" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1023</v>
+        <v>8622</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ROMARIO SHEPHERD</t>
+          <t>DEVON CONWAY</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sat20_2024_17</t>
+          <t>t20blast2021_124</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3690,25 +3690,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -3720,85 +3720,85 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="X28" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD28" t="n">
         <v>24</v>
       </c>
-      <c r="AA28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>3</v>
-      </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1037</v>
+        <v>8745</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SHAMS MULANI</t>
+          <t>MS DHONI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>smat2023_058</t>
+          <t>ipl2024_34</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>212.5</v>
+        <v>311.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3807,31 +3807,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>25</v>
+        <v>11.1</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -3840,97 +3840,97 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>45.8</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AF29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1051</v>
+        <v>8857</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NEHAL WADHERA</t>
+          <t>AJINKYA RAHANE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>smat2023_135</t>
+          <t>smat2023_058</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E30" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>225.9</v>
+        <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>18.5</v>
+        <v>22.6</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3963,31 +3963,31 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
+        <v>33</v>
+      </c>
+      <c r="X30" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC30" t="n">
         <v>37</v>
       </c>
-      <c r="X30" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>48</v>
-      </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -4010,119 +4010,2342 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1074</v>
+        <v>8861</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GERALD COETZEE</t>
+          <t>SHAIK RASHEED</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>smat2023_088</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>31</v>
+      </c>
+      <c r="E31" t="n">
+        <v>30</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>30</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>11</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>8870</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SAMEER RIZVI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>smat2023_130</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>42</v>
+      </c>
+      <c r="E32" t="n">
+        <v>29</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>35</v>
+      </c>
+      <c r="X32" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>8879</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AVANISH RAO ARAVELLY</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>smat2023_130</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>42</v>
+      </c>
+      <c r="E33" t="n">
+        <v>29</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>35</v>
+      </c>
+      <c r="X33" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>9017</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RAVINDRA JADEJA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ipl2024_34</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>57</v>
+      </c>
+      <c r="E34" t="n">
+        <v>40</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>20</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>32</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>9100</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MITCHELL SANTNER</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>t20blast2023_130</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>13</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>130</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>60</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>23</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>23</v>
+      </c>
+      <c r="R35" t="n">
+        <v>21</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="W35" t="n">
+        <v>19</v>
+      </c>
+      <c r="X35" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>9264</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MOEEN ALI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>t20blast2023_070</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>12</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="n">
+        <v>16</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>8</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="W36" t="n">
+        <v>16</v>
+      </c>
+      <c r="X36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>9333</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SHIVAM DUBE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>smat2023_058</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>15</v>
+      </c>
+      <c r="E37" t="n">
+        <v>25</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>60</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>48</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>34</v>
+      </c>
+      <c r="X37" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>39</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>9337</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NISHANT SINDHU</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>smat2023_076</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>18</v>
+      </c>
+      <c r="E38" t="n">
+        <v>22</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="W38" t="n">
+        <v>18</v>
+      </c>
+      <c r="X38" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>9341</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AJAY MANDAL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>smat2023_094</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="n">
+        <v>22</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>11</v>
+      </c>
+      <c r="R39" t="n">
+        <v>12</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>25</v>
+      </c>
+      <c r="W39" t="n">
+        <v>4</v>
+      </c>
+      <c r="X39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>9384</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RACHIN RAVINDRA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ssnz2023_31</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>40</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>60</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>22</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>22</v>
+      </c>
+      <c r="R40" t="n">
+        <v>18</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="W40" t="n">
+        <v>10</v>
+      </c>
+      <c r="X40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>9470</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SHARDUL THAKUR</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ipl2024_29</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="n">
+        <v>35</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>9502</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DARYL MITCHELL</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ipl2023_68</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>9588</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RICHARD GLEESON</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>t20blast2022_133</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="n">
+        <v>27</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>27</v>
+      </c>
+      <c r="R43" t="n">
+        <v>24</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>9668</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DEEPAK CHAHAR</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>smat2021_094</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="n">
+        <v>36</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>25</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>9736</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MAHEESH THEEKSHANA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>sat20_2023_32</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="n">
+        <v>29</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB45" t="n">
         <v>12</v>
       </c>
-      <c r="E31" t="n">
-        <v>17</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="n">
-        <v>41</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z31" t="n">
+      <c r="AC45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>9754</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MUKESH CHOUDHARY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>smat2021_2_096</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="n">
+        <v>24</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>24</v>
+      </c>
+      <c r="R46" t="n">
+        <v>18</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>50</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>9895</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MUSTAFIZUR RAHMAN</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>t20blast2016_110</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>31</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>25</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>9905</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SIMARJEET SINGH</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>smat2021_076</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>22</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>11</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>50</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>9947</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TUSHAR DESHPANDE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>smat2023_058</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>29</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>9984</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MATHEESHA PATHIRANA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>lpl2023_20</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>100</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>18</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="W50" t="n">
+        <v>10</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH50" t="n">
         <v>32</v>
       </c>
-      <c r="AA31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1</v>
+      <c r="AI50" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
